--- a/Datas/Quest.xlsx
+++ b/Datas/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2DE571-0898-453E-A839-EB23CEDA0A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B040ABC6-073C-4C52-BF49-3D387585CB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +596,7 @@
         <v>345</v>
       </c>
       <c r="G6">
-        <v>1005</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>555</v>
@@ -617,6 +617,9 @@
       </c>
       <c r="F7">
         <v>234</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7">
         <v>333</v>

--- a/Datas/Quest.xlsx
+++ b/Datas/Quest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B040ABC6-073C-4C52-BF49-3D387585CB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70387511-E67D-4006-B3B8-E2183A2E209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -69,13 +69,37 @@
     <t>Spend 1 gold at shop</t>
   </si>
   <si>
-    <t>GoldCount</t>
-  </si>
-  <si>
     <t>RewardGold</t>
   </si>
   <si>
     <t>Param1</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>Pick 10 gold coins</t>
+  </si>
+  <si>
+    <t>Summon 5 NPCs</t>
+  </si>
+  <si>
+    <t>Pick 10 stars</t>
+  </si>
+  <si>
+    <t>Pick a Red potion</t>
+  </si>
+  <si>
+    <t>Pick a Toxic potion</t>
+  </si>
+  <si>
+    <t>Pick a Timer</t>
+  </si>
+  <si>
+    <t>AchievementID</t>
   </si>
 </sst>
 </file>
@@ -462,23 +486,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,27 +510,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -514,13 +541,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>9</v>
@@ -531,98 +558,253 @@
       <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1000</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>123</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="H5">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1001</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>345</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="H6">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>1002</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
+        <v>1014</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>1014</v>
+      </c>
+      <c r="G7">
+        <v>234</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1015</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>1015</v>
+      </c>
+      <c r="G8">
+        <v>99</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1016</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>1016</v>
+      </c>
+      <c r="G9">
+        <v>99</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1017</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>1017</v>
+      </c>
+      <c r="G10">
+        <v>99</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>234</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>333</v>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1018</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>1018</v>
+      </c>
+      <c r="G11">
+        <v>99</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1019</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>1019</v>
+      </c>
+      <c r="G12">
+        <v>99</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1020</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>1020</v>
+      </c>
+      <c r="G13">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/Quest.xlsx
+++ b/Datas/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70387511-E67D-4006-B3B8-E2183A2E209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE75315-4079-4DCD-A440-BF814A713B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,20 +489,20 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +533,7 @@
       <c r="K1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -566,7 +566,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -577,7 +577,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -588,7 +588,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1000</v>
       </c>
@@ -608,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1001</v>
       </c>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1014</v>
       </c>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1015</v>
       </c>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1016</v>
       </c>
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1017</v>
       </c>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1018</v>
       </c>
@@ -755,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1019</v>
       </c>
@@ -781,7 +781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1020</v>
       </c>
